--- a/unitdata.xlsx
+++ b/unitdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.zehu\Documents\SIFIWARCHESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0762EA2C-7010-4BF3-BF53-19621EA7C5F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410FE81B-A261-4894-8DF1-128CF6D79ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -81,30 +81,6 @@
     <t>生物/机械</t>
   </si>
   <si>
-    <t>g_att_l</t>
-  </si>
-  <si>
-    <t>g_att_h</t>
-  </si>
-  <si>
-    <t>g_att_b</t>
-  </si>
-  <si>
-    <t>g_att_m</t>
-  </si>
-  <si>
-    <t>a_att_l</t>
-  </si>
-  <si>
-    <t>a_att_h</t>
-  </si>
-  <si>
-    <t>a_att_b</t>
-  </si>
-  <si>
-    <t>a_att_m</t>
-  </si>
-  <si>
     <t>g_range</t>
   </si>
   <si>
@@ -120,18 +96,6 @@
     <t>射程</t>
   </si>
   <si>
-    <t>对轻</t>
-  </si>
-  <si>
-    <t>对重</t>
-  </si>
-  <si>
-    <t>对机械</t>
-  </si>
-  <si>
-    <t>对生物</t>
-  </si>
-  <si>
     <t>频率</t>
   </si>
   <si>
@@ -151,6 +115,57 @@
   </si>
   <si>
     <t>mana</t>
+  </si>
+  <si>
+    <t>Marine</t>
+  </si>
+  <si>
+    <t>Rockhead</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>g_lb</t>
+  </si>
+  <si>
+    <t>g_hb</t>
+  </si>
+  <si>
+    <t>g_lm</t>
+  </si>
+  <si>
+    <t>a_lb</t>
+  </si>
+  <si>
+    <t>a_hb</t>
+  </si>
+  <si>
+    <t>a_lm</t>
+  </si>
+  <si>
+    <t>轻甲生物</t>
+  </si>
+  <si>
+    <t>重甲生物</t>
+  </si>
+  <si>
+    <t>轻甲机械</t>
+  </si>
+  <si>
+    <t>重甲机械</t>
+  </si>
+  <si>
+    <t>g_hm</t>
   </si>
 </sst>
 </file>
@@ -252,32 +267,77 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,209 +623,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:X6"/>
+  <dimension ref="B4:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="13"/>
-    <col min="2" max="2" width="12.73046875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="6.9296875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="5.19921875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="7.1328125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="4.86328125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="4.265625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="4.9296875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="5.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.46484375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.86328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.19921875" style="2" customWidth="1"/>
-    <col min="14" max="15" width="6.46484375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="7" style="2" customWidth="1"/>
-    <col min="17" max="17" width="6" style="3" customWidth="1"/>
-    <col min="18" max="18" width="6.73046875" style="15" customWidth="1"/>
-    <col min="19" max="19" width="5.86328125" style="2" customWidth="1"/>
-    <col min="20" max="21" width="6.46484375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="7.1328125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="6.9296875" style="15" customWidth="1"/>
-    <col min="25" max="16384" width="9.06640625" style="13"/>
+    <col min="1" max="1" width="9.06640625" style="7"/>
+    <col min="2" max="2" width="12.73046875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="6.9296875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="5.19921875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="7.1328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="4.86328125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="4.265625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="4.9296875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="5.3984375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="7.46484375" style="20" customWidth="1"/>
+    <col min="12" max="12" width="7.86328125" style="20" customWidth="1"/>
+    <col min="13" max="13" width="6.19921875" style="21" customWidth="1"/>
+    <col min="14" max="15" width="6.46484375" style="21" customWidth="1"/>
+    <col min="16" max="16" width="7" style="21" customWidth="1"/>
+    <col min="17" max="17" width="6" style="22" customWidth="1"/>
+    <col min="18" max="18" width="6.73046875" style="23" customWidth="1"/>
+    <col min="19" max="19" width="5.86328125" style="21" customWidth="1"/>
+    <col min="20" max="21" width="6.46484375" style="21" customWidth="1"/>
+    <col min="22" max="22" width="7.1328125" style="21" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="22" customWidth="1"/>
+    <col min="24" max="24" width="6.9296875" style="23" customWidth="1"/>
+    <col min="25" max="16384" width="9.06640625" style="7"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="T6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="U6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="X6" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7">
+        <v>100</v>
+      </c>
+      <c r="D7" s="7">
+        <v>50</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>100</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="21">
+        <v>6</v>
+      </c>
+      <c r="N7" s="21">
+        <v>6</v>
+      </c>
+      <c r="O7" s="21">
+        <v>6</v>
+      </c>
+      <c r="P7" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>8</v>
+      </c>
+      <c r="R7" s="23">
+        <v>4</v>
+      </c>
+      <c r="S7" s="21">
+        <v>6</v>
+      </c>
+      <c r="T7" s="21">
+        <v>6</v>
+      </c>
+      <c r="U7" s="21">
+        <v>6</v>
+      </c>
+      <c r="V7" s="21">
+        <v>6</v>
+      </c>
+      <c r="W7" s="22">
+        <v>8</v>
+      </c>
+      <c r="X7" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="C8" s="7">
+        <v>225</v>
+      </c>
+      <c r="D8" s="7">
+        <v>40</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>200</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>4</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="J8" s="20">
+        <v>1</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="X5" s="14" t="s">
-        <v>30</v>
+      <c r="M8" s="21">
+        <v>10</v>
+      </c>
+      <c r="N8" s="21">
+        <v>20</v>
+      </c>
+      <c r="O8" s="21">
+        <v>10</v>
+      </c>
+      <c r="P8" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>4</v>
+      </c>
+      <c r="R8" s="23">
+        <v>5</v>
+      </c>
+      <c r="S8" s="21">
+        <v>0</v>
+      </c>
+      <c r="T8" s="21">
+        <v>0</v>
+      </c>
+      <c r="U8" s="21">
+        <v>0</v>
+      </c>
+      <c r="V8" s="21">
+        <v>0</v>
+      </c>
+      <c r="W8" s="22">
+        <v>0</v>
+      </c>
+      <c r="X8" s="23">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:24" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="T6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="V6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="W6" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="X6" s="22" t="s">
-        <v>27</v>
-      </c>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="C13" s="11"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="C16" s="11"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C19" s="11"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C22" s="11"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/unitdata.xlsx
+++ b/unitdata.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.zehu\Documents\SIFIWARCHESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410FE81B-A261-4894-8DF1-128CF6D79ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFFA614-406F-4313-8F59-0AF184660B4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -284,58 +293,58 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -623,37 +632,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:X25"/>
+  <dimension ref="B4:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="7"/>
-    <col min="2" max="2" width="12.73046875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="6.9296875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="5.19921875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="7.1328125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="4.86328125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="4.265625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="4.9296875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="5.3984375" style="20" customWidth="1"/>
-    <col min="11" max="11" width="7.46484375" style="20" customWidth="1"/>
-    <col min="12" max="12" width="7.86328125" style="20" customWidth="1"/>
-    <col min="13" max="13" width="6.19921875" style="21" customWidth="1"/>
-    <col min="14" max="15" width="6.46484375" style="21" customWidth="1"/>
-    <col min="16" max="16" width="7" style="21" customWidth="1"/>
-    <col min="17" max="17" width="6" style="22" customWidth="1"/>
-    <col min="18" max="18" width="6.73046875" style="23" customWidth="1"/>
-    <col min="19" max="19" width="5.86328125" style="21" customWidth="1"/>
-    <col min="20" max="21" width="6.46484375" style="21" customWidth="1"/>
-    <col min="22" max="22" width="7.1328125" style="21" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="22" customWidth="1"/>
-    <col min="24" max="24" width="6.9296875" style="23" customWidth="1"/>
-    <col min="25" max="16384" width="9.06640625" style="7"/>
+    <col min="1" max="1" width="9.06640625" style="6"/>
+    <col min="2" max="2" width="12.73046875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6.9296875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="5.19921875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="7.1328125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="4.86328125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="4.265625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="4.9296875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="5.3984375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="7.46484375" style="19" customWidth="1"/>
+    <col min="12" max="12" width="7.86328125" style="19" customWidth="1"/>
+    <col min="13" max="13" width="6.19921875" style="20" customWidth="1"/>
+    <col min="14" max="15" width="6.46484375" style="20" customWidth="1"/>
+    <col min="16" max="16" width="7" style="20" customWidth="1"/>
+    <col min="17" max="17" width="6" style="21" customWidth="1"/>
+    <col min="18" max="18" width="6.73046875" style="22" customWidth="1"/>
+    <col min="19" max="19" width="5.86328125" style="20" customWidth="1"/>
+    <col min="20" max="21" width="6.46484375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="7.1328125" style="20" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="21" customWidth="1"/>
+    <col min="24" max="24" width="6.9296875" style="22" customWidth="1"/>
+    <col min="25" max="16384" width="9.06640625" style="6"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:24" x14ac:dyDescent="0.45">
@@ -668,22 +677,22 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
@@ -719,111 +728,111 @@
       <c r="L5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="S5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="U5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="8" t="s">
+      <c r="V5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="W5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="X5" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:24" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11" t="s">
+    <row r="6" spans="2:24" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="14" t="s">
+      <c r="J6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="R6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="S6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="U6" s="15" t="s">
+      <c r="U6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="V6" s="15" t="s">
+      <c r="V6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="W6" s="16" t="s">
+      <c r="W6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="X6" s="17" t="s">
+      <c r="X6" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -831,70 +840,70 @@
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>100</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>50</v>
       </c>
-      <c r="E7" s="18">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
         <v>100</v>
       </c>
-      <c r="G7" s="19">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
         <v>4</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="20">
-        <v>0</v>
-      </c>
-      <c r="K7" s="20" t="s">
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="21">
-        <v>6</v>
-      </c>
-      <c r="N7" s="21">
-        <v>6</v>
-      </c>
-      <c r="O7" s="21">
-        <v>6</v>
-      </c>
-      <c r="P7" s="21">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="22">
+      <c r="M7" s="20">
+        <v>6</v>
+      </c>
+      <c r="N7" s="20">
+        <v>6</v>
+      </c>
+      <c r="O7" s="20">
+        <v>6</v>
+      </c>
+      <c r="P7" s="20">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="21">
         <v>8</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="22">
         <v>4</v>
       </c>
-      <c r="S7" s="21">
-        <v>6</v>
-      </c>
-      <c r="T7" s="21">
-        <v>6</v>
-      </c>
-      <c r="U7" s="21">
-        <v>6</v>
-      </c>
-      <c r="V7" s="21">
-        <v>6</v>
-      </c>
-      <c r="W7" s="22">
+      <c r="S7" s="20">
+        <v>6</v>
+      </c>
+      <c r="T7" s="20">
+        <v>6</v>
+      </c>
+      <c r="U7" s="20">
+        <v>6</v>
+      </c>
+      <c r="V7" s="20">
+        <v>6</v>
+      </c>
+      <c r="W7" s="21">
         <v>8</v>
       </c>
-      <c r="X7" s="23">
+      <c r="X7" s="22">
         <v>4</v>
       </c>
     </row>
@@ -902,87 +911,256 @@
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>225</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>40</v>
       </c>
-      <c r="E8" s="18">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
         <v>200</v>
       </c>
-      <c r="G8" s="19">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <v>4</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <v>1</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="20">
         <v>10</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="20">
         <v>20</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="20">
         <v>10</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="20">
         <v>20</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="21">
         <v>4</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="22">
         <v>5</v>
       </c>
-      <c r="S8" s="21">
-        <v>0</v>
-      </c>
-      <c r="T8" s="21">
-        <v>0</v>
-      </c>
-      <c r="U8" s="21">
-        <v>0</v>
-      </c>
-      <c r="V8" s="21">
-        <v>0</v>
-      </c>
-      <c r="W8" s="22">
-        <v>0</v>
-      </c>
-      <c r="X8" s="23">
-        <v>0</v>
+      <c r="S8" s="20">
+        <v>0</v>
+      </c>
+      <c r="T8" s="20">
+        <v>0</v>
+      </c>
+      <c r="U8" s="20">
+        <v>0</v>
+      </c>
+      <c r="V8" s="20">
+        <v>0</v>
+      </c>
+      <c r="W8" s="21">
+        <v>0</v>
+      </c>
+      <c r="X8" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="C13" s="11"/>
+      <c r="B13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="C16" s="11"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C19" s="11"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C22" s="11"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C25" s="11"/>
+      <c r="B16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B26" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B28" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B29" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B30" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B31" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="22">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/unitdata.xlsx
+++ b/unitdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.zehu\Documents\SIFIWARCHESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFFA614-406F-4313-8F59-0AF184660B4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C907CDAD-C739-4B5E-B842-AE6EE4F0B8F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>g_hm</t>
+  </si>
+  <si>
+    <t>a_hm</t>
   </si>
 </sst>
 </file>
@@ -634,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -827,7 +830,7 @@
         <v>41</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="W6" s="15" t="s">
         <v>25</v>
@@ -1140,7 +1143,7 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B31" s="14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C31" s="20">
         <v>6</v>

--- a/unitdata.xlsx
+++ b/unitdata.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.zehu\Documents\SIFIWARCHESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C907CDAD-C739-4B5E-B842-AE6EE4F0B8F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F642F28-F216-4C56-A415-15DBB26FEA41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -178,6 +178,48 @@
   </si>
   <si>
     <t>a_hm</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Firecloud</t>
+  </si>
+  <si>
+    <t>Medican</t>
+  </si>
+  <si>
+    <t>Shield Defense</t>
+  </si>
+  <si>
+    <t>Adrenaline</t>
+  </si>
+  <si>
+    <t>Shocking</t>
+  </si>
+  <si>
+    <t>Medical nanoworm</t>
+  </si>
+  <si>
+    <t>Emergency</t>
+  </si>
+  <si>
+    <t>Siege Tank</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Siege mode</t>
+  </si>
+  <si>
+    <t>Destroyer</t>
   </si>
 </sst>
 </file>
@@ -208,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,8 +293,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8B8B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -275,15 +323,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -299,55 +381,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -358,6 +461,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF8B8B"/>
+      <color rgb="FFFF3300"/>
       <color rgb="FFCC99FF"/>
     </mruColors>
   </colors>
@@ -635,540 +740,841 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:X33"/>
+  <dimension ref="A4:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="6"/>
-    <col min="2" max="2" width="12.73046875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="6.9296875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="5.19921875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="7.1328125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="4.86328125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="4.265625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="4.9296875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="5.3984375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="7.46484375" style="19" customWidth="1"/>
-    <col min="12" max="12" width="7.86328125" style="19" customWidth="1"/>
-    <col min="13" max="13" width="6.19921875" style="20" customWidth="1"/>
-    <col min="14" max="15" width="6.46484375" style="20" customWidth="1"/>
-    <col min="16" max="16" width="7" style="20" customWidth="1"/>
-    <col min="17" max="17" width="6" style="21" customWidth="1"/>
-    <col min="18" max="18" width="6.73046875" style="22" customWidth="1"/>
-    <col min="19" max="19" width="5.86328125" style="20" customWidth="1"/>
-    <col min="20" max="21" width="6.46484375" style="20" customWidth="1"/>
-    <col min="22" max="22" width="7.1328125" style="20" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="21" customWidth="1"/>
-    <col min="24" max="24" width="6.9296875" style="22" customWidth="1"/>
-    <col min="25" max="16384" width="9.06640625" style="6"/>
+    <col min="1" max="1" width="4.46484375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.53125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="6.9296875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="5.19921875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="5.19921875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="7.1328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="4.86328125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="4.265625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="4.9296875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="5.3984375" style="17" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="17" customWidth="1"/>
+    <col min="13" max="13" width="6" style="17" customWidth="1"/>
+    <col min="14" max="14" width="6.19921875" style="18" customWidth="1"/>
+    <col min="15" max="16" width="6.46484375" style="18" customWidth="1"/>
+    <col min="17" max="17" width="7" style="18" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" style="19" customWidth="1"/>
+    <col min="19" max="19" width="4.53125" style="20" customWidth="1"/>
+    <col min="20" max="20" width="5.86328125" style="18" customWidth="1"/>
+    <col min="21" max="22" width="6.46484375" style="18" customWidth="1"/>
+    <col min="23" max="23" width="7.1328125" style="18" customWidth="1"/>
+    <col min="24" max="24" width="4.19921875" style="19" customWidth="1"/>
+    <col min="25" max="25" width="4.53125" style="20" customWidth="1"/>
+    <col min="26" max="26" width="15.86328125" style="5" customWidth="1"/>
+    <col min="27" max="27" width="12.53125" style="5" customWidth="1"/>
+    <col min="28" max="16384" width="9.06640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="23" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="23"/>
       <c r="O4" s="23"/>
       <c r="P4" s="23"/>
       <c r="Q4" s="23"/>
       <c r="R4" s="23"/>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="24"/>
+      <c r="T4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="23"/>
       <c r="U4" s="23"/>
       <c r="V4" s="23"/>
       <c r="W4" s="23"/>
       <c r="X4" s="23"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B5" s="2" t="s">
+      <c r="Y4" s="24"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="N5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="O5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="V5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="X5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="Y5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="X5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5">
+        <v>100</v>
+      </c>
+      <c r="E7" s="29">
+        <v>50</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>100</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>4</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="17">
+        <v>0</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="18">
+        <v>6</v>
+      </c>
+      <c r="O7" s="18">
+        <v>6</v>
+      </c>
+      <c r="P7" s="18">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>6</v>
+      </c>
+      <c r="R7" s="19">
+        <v>8</v>
+      </c>
+      <c r="S7" s="20">
+        <v>4</v>
+      </c>
+      <c r="T7" s="18">
+        <v>6</v>
+      </c>
+      <c r="U7" s="18">
+        <v>6</v>
+      </c>
+      <c r="V7" s="18">
+        <v>6</v>
+      </c>
+      <c r="W7" s="18">
+        <v>6</v>
+      </c>
+      <c r="X7" s="19">
+        <v>8</v>
+      </c>
+      <c r="Y7" s="20">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA7" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="5">
+        <v>225</v>
+      </c>
+      <c r="E8" s="29">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>200</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="17">
+        <v>1</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="18">
+        <v>10</v>
+      </c>
+      <c r="O8" s="18">
+        <v>10</v>
+      </c>
+      <c r="P8" s="18">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="18">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="2:24" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="R8" s="19">
+        <v>4</v>
+      </c>
+      <c r="S8" s="20">
+        <v>5</v>
+      </c>
+      <c r="T8" s="18">
+        <v>0</v>
+      </c>
+      <c r="U8" s="18">
+        <v>0</v>
+      </c>
+      <c r="V8" s="18">
+        <v>0</v>
+      </c>
+      <c r="W8" s="18">
+        <v>0</v>
+      </c>
+      <c r="X8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="5">
+        <v>200</v>
+      </c>
+      <c r="E9" s="29">
+        <v>40</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>200</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>4</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="17">
         <v>1</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="L9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="18">
+        <v>50</v>
+      </c>
+      <c r="O9" s="18">
+        <v>30</v>
+      </c>
+      <c r="P9" s="18">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>20</v>
+      </c>
+      <c r="R9" s="19">
         <v>2</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="S9" s="20">
+        <v>2</v>
+      </c>
+      <c r="T9" s="18">
+        <v>0</v>
+      </c>
+      <c r="U9" s="18">
+        <v>0</v>
+      </c>
+      <c r="V9" s="18">
+        <v>0</v>
+      </c>
+      <c r="W9" s="18">
+        <v>0</v>
+      </c>
+      <c r="X9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="5">
+        <v>200</v>
+      </c>
+      <c r="E10" s="29">
+        <v>20</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>100</v>
+      </c>
+      <c r="H10" s="16">
+        <v>200</v>
+      </c>
+      <c r="I10" s="5">
+        <v>4</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="17">
+        <v>1</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="18">
+        <v>0</v>
+      </c>
+      <c r="O10" s="18">
+        <v>0</v>
+      </c>
+      <c r="P10" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>0</v>
+      </c>
+      <c r="R10" s="19">
+        <v>0</v>
+      </c>
+      <c r="S10" s="20">
+        <v>0</v>
+      </c>
+      <c r="T10" s="18">
+        <v>0</v>
+      </c>
+      <c r="U10" s="18">
+        <v>0</v>
+      </c>
+      <c r="V10" s="18">
+        <v>0</v>
+      </c>
+      <c r="W10" s="18">
+        <v>0</v>
+      </c>
+      <c r="X10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="5">
+        <v>400</v>
+      </c>
+      <c r="E11" s="29">
+        <v>10</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>600</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>4</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="17">
+        <v>2</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="18">
+        <v>40</v>
+      </c>
+      <c r="O11" s="18">
+        <v>40</v>
+      </c>
+      <c r="P11" s="18">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>70</v>
+      </c>
+      <c r="R11" s="19">
+        <v>5</v>
+      </c>
+      <c r="S11" s="20">
+        <v>6</v>
+      </c>
+      <c r="T11" s="18">
+        <v>0</v>
+      </c>
+      <c r="U11" s="18">
+        <v>0</v>
+      </c>
+      <c r="V11" s="18">
+        <v>0</v>
+      </c>
+      <c r="W11" s="18">
+        <v>0</v>
+      </c>
+      <c r="X11" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="5">
+        <v>600</v>
+      </c>
+      <c r="E12" s="29">
+        <v>5</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1500</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
         <v>3</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="J12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="17">
+        <v>2</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="18">
+        <v>160</v>
+      </c>
+      <c r="O12" s="18">
+        <v>160</v>
+      </c>
+      <c r="P12" s="18">
+        <v>160</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>160</v>
+      </c>
+      <c r="R12" s="19">
         <v>4</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="S12" s="20">
         <v>6</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="V6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="W6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="X6" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="6">
-        <v>100</v>
-      </c>
-      <c r="D7" s="6">
-        <v>50</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>100</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>4</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="20">
-        <v>6</v>
-      </c>
-      <c r="N7" s="20">
-        <v>6</v>
-      </c>
-      <c r="O7" s="20">
-        <v>6</v>
-      </c>
-      <c r="P7" s="20">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="21">
-        <v>8</v>
-      </c>
-      <c r="R7" s="22">
-        <v>4</v>
-      </c>
-      <c r="S7" s="20">
-        <v>6</v>
-      </c>
-      <c r="T7" s="20">
-        <v>6</v>
-      </c>
-      <c r="U7" s="20">
-        <v>6</v>
-      </c>
-      <c r="V7" s="20">
-        <v>6</v>
-      </c>
-      <c r="W7" s="21">
-        <v>8</v>
-      </c>
-      <c r="X7" s="22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="6">
-        <v>225</v>
-      </c>
-      <c r="D8" s="6">
-        <v>40</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>200</v>
-      </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>4</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="19">
-        <v>1</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="20">
+      <c r="T12" s="18">
+        <v>65</v>
+      </c>
+      <c r="U12" s="18">
+        <v>65</v>
+      </c>
+      <c r="V12" s="18">
+        <v>60</v>
+      </c>
+      <c r="W12" s="18">
+        <v>60</v>
+      </c>
+      <c r="X12" s="19">
+        <v>12</v>
+      </c>
+      <c r="Y12" s="20">
         <v>10</v>
       </c>
-      <c r="N8" s="20">
-        <v>20</v>
-      </c>
-      <c r="O8" s="20">
-        <v>10</v>
-      </c>
-      <c r="P8" s="20">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="21">
-        <v>4</v>
-      </c>
-      <c r="R8" s="22">
-        <v>5</v>
-      </c>
-      <c r="S8" s="20">
-        <v>0</v>
-      </c>
-      <c r="T8" s="20">
-        <v>0</v>
-      </c>
-      <c r="U8" s="20">
-        <v>0</v>
-      </c>
-      <c r="V8" s="20">
-        <v>0</v>
-      </c>
-      <c r="W8" s="21">
-        <v>0</v>
-      </c>
-      <c r="X8" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B11" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B17" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B21" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B22" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B23" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B24" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B25" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B26" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B27" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B28" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B29" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B30" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B31" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B32" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B33" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="22">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C17" s="26"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C22" s="26"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C23" s="26"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C33" s="26"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C34" s="26"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C35" s="26"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C36" s="26"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C37" s="26"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C38" s="26"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C39" s="26"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C40" s="26"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C41" s="26"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C42" s="26"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C43" s="26"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C44" s="26"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C45" s="26"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C46" s="26"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C47" s="26"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C48" s="26"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C49" s="26"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C50" s="26"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C51" s="26"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C52" s="26"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C53" s="26"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C54" s="26"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C55" s="26"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C56" s="26"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C57" s="26"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C58" s="26"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C59" s="26"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C60" s="26"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C61" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="M4:R4"/>
-    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="N4:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/unitdata.xlsx
+++ b/unitdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.zehu\Documents\SIFIWARCHESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F642F28-F216-4C56-A415-15DBB26FEA41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9082ED2-E2D0-4F12-A1FD-2B2EBAB0C204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
   <si>
     <t>name</t>
   </si>
@@ -220,6 +220,33 @@
   </si>
   <si>
     <t>Destroyer</t>
+  </si>
+  <si>
+    <t>Storm Chariot</t>
+  </si>
+  <si>
+    <t>EMP</t>
+  </si>
+  <si>
+    <t>Wasplins</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>Piercing missile</t>
+  </si>
+  <si>
+    <t>Battleship</t>
+  </si>
+  <si>
+    <t>Space jump</t>
+  </si>
+  <si>
+    <t>Volley</t>
   </si>
 </sst>
 </file>
@@ -429,6 +456,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -436,21 +478,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,19 +767,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:AA61"/>
+  <dimension ref="A4:AA62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.46484375" style="5" customWidth="1"/>
     <col min="2" max="2" width="7.53125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12" style="5" customWidth="1"/>
     <col min="4" max="4" width="6.9296875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="5.19921875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="5.19921875" style="26" customWidth="1"/>
     <col min="6" max="6" width="5.19921875" style="15" customWidth="1"/>
     <col min="7" max="7" width="7.1328125" style="5" customWidth="1"/>
     <col min="8" max="8" width="4.86328125" style="16" customWidth="1"/>
@@ -763,12 +790,13 @@
     <col min="13" max="13" width="6" style="17" customWidth="1"/>
     <col min="14" max="14" width="6.19921875" style="18" customWidth="1"/>
     <col min="15" max="16" width="6.46484375" style="18" customWidth="1"/>
-    <col min="17" max="17" width="7" style="18" customWidth="1"/>
+    <col min="17" max="17" width="6.265625" style="18" customWidth="1"/>
     <col min="18" max="18" width="4.33203125" style="19" customWidth="1"/>
     <col min="19" max="19" width="4.53125" style="20" customWidth="1"/>
     <col min="20" max="20" width="5.86328125" style="18" customWidth="1"/>
-    <col min="21" max="22" width="6.46484375" style="18" customWidth="1"/>
-    <col min="23" max="23" width="7.1328125" style="18" customWidth="1"/>
+    <col min="21" max="21" width="6.46484375" style="18" customWidth="1"/>
+    <col min="22" max="22" width="6.265625" style="18" customWidth="1"/>
+    <col min="23" max="23" width="5.796875" style="18" customWidth="1"/>
     <col min="24" max="24" width="4.19921875" style="19" customWidth="1"/>
     <col min="25" max="25" width="4.53125" style="20" customWidth="1"/>
     <col min="26" max="26" width="15.86328125" style="5" customWidth="1"/>
@@ -779,7 +807,7 @@
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="27"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
       <c r="H4" s="3"/>
@@ -788,22 +816,22 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="22" t="s">
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="24"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="29"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
@@ -812,7 +840,7 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="24" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -889,7 +917,7 @@
       <c r="D6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -957,13 +985,13 @@
       <c r="B7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="5">
         <v>100</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="26">
         <v>50</v>
       </c>
       <c r="F7" s="15">
@@ -1026,10 +1054,10 @@
       <c r="Y7" s="20">
         <v>4</v>
       </c>
-      <c r="Z7" s="25" t="s">
+      <c r="Z7" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AA7" s="25" t="s">
+      <c r="AA7" s="22" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1037,13 +1065,13 @@
       <c r="B8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="23" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="5">
         <v>225</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="26">
         <v>40</v>
       </c>
       <c r="F8" s="15">
@@ -1071,13 +1099,13 @@
         <v>34</v>
       </c>
       <c r="N8" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O8" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P8" s="18">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="18">
         <v>22</v>
@@ -1106,7 +1134,7 @@
       <c r="Y8" s="20">
         <v>0</v>
       </c>
-      <c r="Z8" s="25" t="s">
+      <c r="Z8" s="22" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1114,13 +1142,13 @@
       <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="23" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="5">
         <v>200</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="26">
         <v>40</v>
       </c>
       <c r="F9" s="15">
@@ -1148,7 +1176,7 @@
         <v>34</v>
       </c>
       <c r="N9" s="18">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O9" s="18">
         <v>30</v>
@@ -1157,7 +1185,7 @@
         <v>30</v>
       </c>
       <c r="Q9" s="18">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R9" s="19">
         <v>2</v>
@@ -1188,13 +1216,13 @@
       <c r="B10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="23" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="5">
         <v>200</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="26">
         <v>20</v>
       </c>
       <c r="F10" s="15">
@@ -1257,10 +1285,10 @@
       <c r="Y10" s="20">
         <v>0</v>
       </c>
-      <c r="Z10" s="25" t="s">
+      <c r="Z10" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AA10" s="25" t="s">
+      <c r="AA10" s="22" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1268,103 +1296,104 @@
       <c r="B11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>58</v>
+      <c r="C11" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="D11" s="5">
-        <v>400</v>
-      </c>
-      <c r="E11" s="29">
-        <v>10</v>
+        <v>225</v>
+      </c>
+      <c r="E11" s="26">
+        <v>20</v>
       </c>
       <c r="F11" s="15">
         <v>0</v>
       </c>
       <c r="G11" s="5">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="H11" s="16">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I11" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>32</v>
       </c>
       <c r="K11" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M11" s="17" t="s">
         <v>59</v>
       </c>
       <c r="N11" s="18">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O11" s="18">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="P11" s="18">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="18">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="R11" s="19">
+        <v>20</v>
+      </c>
+      <c r="S11" s="20">
         <v>5</v>
       </c>
-      <c r="S11" s="20">
+      <c r="T11" s="18">
+        <v>7</v>
+      </c>
+      <c r="U11" s="18">
+        <v>7</v>
+      </c>
+      <c r="V11" s="18">
+        <v>5</v>
+      </c>
+      <c r="W11" s="18">
+        <v>5</v>
+      </c>
+      <c r="X11" s="19">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="20">
         <v>6</v>
       </c>
-      <c r="T11" s="18">
-        <v>0</v>
-      </c>
-      <c r="U11" s="18">
-        <v>0</v>
-      </c>
-      <c r="V11" s="18">
-        <v>0</v>
-      </c>
-      <c r="W11" s="18">
-        <v>0</v>
-      </c>
-      <c r="X11" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="26" t="s">
-        <v>60</v>
-      </c>
+      <c r="Z11" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA11" s="22"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>61</v>
+      <c r="C12" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="D12" s="5">
+        <v>400</v>
+      </c>
+      <c r="E12" s="26">
+        <v>10</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
         <v>600</v>
       </c>
-      <c r="E12" s="29">
-        <v>5</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1500</v>
-      </c>
       <c r="H12" s="16">
         <v>0</v>
       </c>
       <c r="I12" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>32</v>
@@ -1379,197 +1408,487 @@
         <v>59</v>
       </c>
       <c r="N12" s="18">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="O12" s="18">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="P12" s="18">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="18">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="R12" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S12" s="20">
         <v>6</v>
       </c>
       <c r="T12" s="18">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="U12" s="18">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="V12" s="18">
+        <v>0</v>
+      </c>
+      <c r="W12" s="18">
+        <v>0</v>
+      </c>
+      <c r="X12" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="W12" s="18">
-        <v>60</v>
-      </c>
-      <c r="X12" s="19">
-        <v>12</v>
-      </c>
-      <c r="Y12" s="20">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="5">
+        <v>600</v>
+      </c>
+      <c r="E13" s="26">
+        <v>5</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1500</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>3</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="17">
+        <v>3</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="18">
+        <v>160</v>
+      </c>
+      <c r="O13" s="18">
+        <v>160</v>
+      </c>
+      <c r="P13" s="18">
+        <v>160</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>160</v>
+      </c>
+      <c r="R13" s="19">
+        <v>4</v>
+      </c>
+      <c r="S13" s="20">
+        <v>6</v>
+      </c>
+      <c r="T13" s="18">
+        <v>50</v>
+      </c>
+      <c r="U13" s="18">
+        <v>50</v>
+      </c>
+      <c r="V13" s="18">
+        <v>48</v>
+      </c>
+      <c r="W13" s="18">
+        <v>48</v>
+      </c>
+      <c r="X13" s="19">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="20">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="5">
+        <v>125</v>
+      </c>
+      <c r="E14" s="26">
+        <v>50</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>100</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>6</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="17">
+        <v>0</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="18">
+        <v>0</v>
+      </c>
+      <c r="O14" s="18">
+        <v>0</v>
+      </c>
+      <c r="P14" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>0</v>
+      </c>
+      <c r="R14" s="19">
+        <v>0</v>
+      </c>
+      <c r="S14" s="20">
+        <v>0</v>
+      </c>
+      <c r="T14" s="18">
+        <v>12</v>
+      </c>
+      <c r="U14" s="18">
+        <v>12</v>
+      </c>
+      <c r="V14" s="18">
+        <v>13</v>
+      </c>
+      <c r="W14" s="18">
+        <v>13</v>
+      </c>
+      <c r="X14" s="19">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="20">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="26"/>
+      <c r="C15" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="5">
+        <v>450</v>
+      </c>
+      <c r="E15" s="26">
+        <v>7</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>800</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>4</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="17">
+        <v>2</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="18">
+        <v>50</v>
+      </c>
+      <c r="O15" s="18">
+        <v>50</v>
+      </c>
+      <c r="P15" s="18">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>50</v>
+      </c>
+      <c r="R15" s="19">
+        <v>6</v>
+      </c>
+      <c r="S15" s="20">
+        <v>6</v>
+      </c>
+      <c r="T15" s="18">
+        <v>50</v>
+      </c>
+      <c r="U15" s="18">
+        <v>50</v>
+      </c>
+      <c r="V15" s="18">
+        <v>50</v>
+      </c>
+      <c r="W15" s="18">
+        <v>50</v>
+      </c>
+      <c r="X15" s="19">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="20">
+        <v>6</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="C16" s="26"/>
+      <c r="B16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="5">
+        <v>800</v>
+      </c>
+      <c r="E16" s="26">
+        <v>3</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2000</v>
+      </c>
+      <c r="H16" s="16">
+        <v>200</v>
+      </c>
+      <c r="I16" s="5">
+        <v>2</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="17">
+        <v>3</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16" s="18">
+        <v>50</v>
+      </c>
+      <c r="O16" s="18">
+        <v>50</v>
+      </c>
+      <c r="P16" s="18">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>50</v>
+      </c>
+      <c r="R16" s="19">
+        <v>16</v>
+      </c>
+      <c r="S16" s="20">
+        <v>5</v>
+      </c>
+      <c r="T16" s="18">
+        <v>20</v>
+      </c>
+      <c r="U16" s="18">
+        <v>20</v>
+      </c>
+      <c r="V16" s="18">
+        <v>20</v>
+      </c>
+      <c r="W16" s="18">
+        <v>20</v>
+      </c>
+      <c r="X16" s="19">
+        <v>40</v>
+      </c>
+      <c r="Y16" s="20">
+        <v>6</v>
+      </c>
+      <c r="Z16" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA16" s="22" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C17" s="26"/>
+      <c r="C17" s="23"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C18" s="26"/>
+      <c r="C18" s="23"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C19" s="26"/>
+      <c r="C19" s="23"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C20" s="26"/>
+      <c r="C20" s="23"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C21" s="26"/>
+      <c r="C21" s="23"/>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C22" s="26"/>
+      <c r="C22" s="23"/>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C23" s="26"/>
+      <c r="C23" s="23"/>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C24" s="26"/>
+      <c r="C24" s="23"/>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C25" s="26"/>
+      <c r="C25" s="23"/>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C26" s="26"/>
+      <c r="C26" s="23"/>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C27" s="26"/>
+      <c r="C27" s="23"/>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C28" s="26"/>
+      <c r="C28" s="23"/>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C29" s="26"/>
+      <c r="C29" s="23"/>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C30" s="26"/>
+      <c r="C30" s="23"/>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C31" s="26"/>
+      <c r="C31" s="23"/>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C32" s="26"/>
+      <c r="C32" s="23"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C33" s="26"/>
+      <c r="C33" s="23"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C34" s="26"/>
+      <c r="C34" s="23"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C35" s="26"/>
+      <c r="C35" s="23"/>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C36" s="26"/>
+      <c r="C36" s="23"/>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C37" s="26"/>
+      <c r="C37" s="23"/>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C38" s="26"/>
+      <c r="C38" s="23"/>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C39" s="26"/>
+      <c r="C39" s="23"/>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C40" s="26"/>
+      <c r="C40" s="23"/>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C41" s="26"/>
+      <c r="C41" s="23"/>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C42" s="26"/>
+      <c r="C42" s="23"/>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C43" s="26"/>
+      <c r="C43" s="23"/>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C44" s="26"/>
+      <c r="C44" s="23"/>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C45" s="26"/>
+      <c r="C45" s="23"/>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C46" s="26"/>
+      <c r="C46" s="23"/>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C47" s="26"/>
+      <c r="C47" s="23"/>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C48" s="26"/>
+      <c r="C48" s="23"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C49" s="26"/>
+      <c r="C49" s="23"/>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C50" s="26"/>
+      <c r="C50" s="23"/>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C51" s="26"/>
+      <c r="C51" s="23"/>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C52" s="26"/>
+      <c r="C52" s="23"/>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C53" s="26"/>
+      <c r="C53" s="23"/>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C54" s="26"/>
+      <c r="C54" s="23"/>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C55" s="26"/>
+      <c r="C55" s="23"/>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C56" s="26"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C57" s="26"/>
+      <c r="C57" s="23"/>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C58" s="26"/>
+      <c r="C58" s="23"/>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C59" s="26"/>
+      <c r="C59" s="23"/>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C60" s="26"/>
+      <c r="C60" s="23"/>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C61" s="26"/>
+      <c r="C61" s="23"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C62" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/unitdata.xlsx
+++ b/unitdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.zehu\Documents\SIFIWARCHESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9082ED2-E2D0-4F12-A1FD-2B2EBAB0C204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DF5996-B046-4E08-BC13-B33833BECDF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>Volley</t>
+  </si>
+  <si>
+    <t>aoe</t>
+  </si>
+  <si>
+    <t>Targon</t>
   </si>
 </sst>
 </file>
@@ -391,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -469,6 +475,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -767,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:AA62"/>
+  <dimension ref="A4:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -792,19 +804,19 @@
     <col min="15" max="16" width="6.46484375" style="18" customWidth="1"/>
     <col min="17" max="17" width="6.265625" style="18" customWidth="1"/>
     <col min="18" max="18" width="4.33203125" style="19" customWidth="1"/>
-    <col min="19" max="19" width="4.53125" style="20" customWidth="1"/>
-    <col min="20" max="20" width="5.86328125" style="18" customWidth="1"/>
-    <col min="21" max="21" width="6.46484375" style="18" customWidth="1"/>
-    <col min="22" max="22" width="6.265625" style="18" customWidth="1"/>
-    <col min="23" max="23" width="5.796875" style="18" customWidth="1"/>
-    <col min="24" max="24" width="4.19921875" style="19" customWidth="1"/>
-    <col min="25" max="25" width="4.53125" style="20" customWidth="1"/>
-    <col min="26" max="26" width="15.86328125" style="5" customWidth="1"/>
-    <col min="27" max="27" width="12.53125" style="5" customWidth="1"/>
-    <col min="28" max="16384" width="9.06640625" style="5"/>
+    <col min="19" max="20" width="4.53125" style="20" customWidth="1"/>
+    <col min="21" max="21" width="5.86328125" style="18" customWidth="1"/>
+    <col min="22" max="22" width="6.46484375" style="18" customWidth="1"/>
+    <col min="23" max="23" width="6.265625" style="18" customWidth="1"/>
+    <col min="24" max="24" width="5.796875" style="18" customWidth="1"/>
+    <col min="25" max="25" width="4.19921875" style="19" customWidth="1"/>
+    <col min="26" max="27" width="4.53125" style="20" customWidth="1"/>
+    <col min="28" max="28" width="15.86328125" style="5" customWidth="1"/>
+    <col min="29" max="29" width="12.53125" style="5" customWidth="1"/>
+    <col min="30" max="16384" width="9.06640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="24"/>
@@ -816,24 +828,26 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="27" t="s">
+      <c r="N4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="27" t="s">
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="29"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="28"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
@@ -885,26 +899,28 @@
       <c r="S5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="T5" s="7"/>
+      <c r="U5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="21" t="s">
+      <c r="V5" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="W5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="21" t="s">
+      <c r="X5" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="Y5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="7" t="s">
+      <c r="Z5" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="AA5" s="7"/>
+    </row>
+    <row r="6" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>50</v>
       </c>
@@ -962,26 +978,35 @@
       <c r="S6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="U6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="U6" s="12" t="s">
+      <c r="V6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="W6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="W6" s="12" t="s">
+      <c r="X6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="X6" s="13" t="s">
+      <c r="Y6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="14" t="s">
+      <c r="Z6" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AA6" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>49</v>
       </c>
@@ -1036,8 +1061,8 @@
       <c r="S7" s="20">
         <v>4</v>
       </c>
-      <c r="T7" s="18">
-        <v>6</v>
+      <c r="T7" s="20">
+        <v>0</v>
       </c>
       <c r="U7" s="18">
         <v>6</v>
@@ -1048,20 +1073,29 @@
       <c r="W7" s="18">
         <v>6</v>
       </c>
-      <c r="X7" s="19">
+      <c r="X7" s="18">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="19">
         <v>8</v>
       </c>
-      <c r="Y7" s="20">
+      <c r="Z7" s="20">
         <v>4</v>
       </c>
-      <c r="Z7" s="22" t="s">
+      <c r="AA7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AA7" s="22" t="s">
+      <c r="AC7" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>49</v>
       </c>
@@ -1116,7 +1150,7 @@
       <c r="S8" s="20">
         <v>5</v>
       </c>
-      <c r="T8" s="18">
+      <c r="T8" s="20">
         <v>0</v>
       </c>
       <c r="U8" s="18">
@@ -1128,17 +1162,26 @@
       <c r="W8" s="18">
         <v>0</v>
       </c>
-      <c r="X8" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="22" t="s">
+      <c r="X8" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
@@ -1193,8 +1236,8 @@
       <c r="S9" s="20">
         <v>2</v>
       </c>
-      <c r="T9" s="18">
-        <v>0</v>
+      <c r="T9" s="20">
+        <v>1</v>
       </c>
       <c r="U9" s="18">
         <v>0</v>
@@ -1205,14 +1248,23 @@
       <c r="W9" s="18">
         <v>0</v>
       </c>
-      <c r="X9" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="X9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A10" s="5">
+        <v>4</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>49</v>
       </c>
@@ -1267,7 +1319,7 @@
       <c r="S10" s="20">
         <v>0</v>
       </c>
-      <c r="T10" s="18">
+      <c r="T10" s="20">
         <v>0</v>
       </c>
       <c r="U10" s="18">
@@ -1279,20 +1331,29 @@
       <c r="W10" s="18">
         <v>0</v>
       </c>
-      <c r="X10" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="22" t="s">
+      <c r="X10" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AA10" s="22" t="s">
+      <c r="AC10" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>49</v>
       </c>
@@ -1347,30 +1408,39 @@
       <c r="S11" s="20">
         <v>5</v>
       </c>
-      <c r="T11" s="18">
-        <v>7</v>
+      <c r="T11" s="20">
+        <v>0</v>
       </c>
       <c r="U11" s="18">
         <v>7</v>
       </c>
       <c r="V11" s="18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W11" s="18">
         <v>5</v>
       </c>
-      <c r="X11" s="19">
+      <c r="X11" s="18">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="19">
         <v>20</v>
       </c>
-      <c r="Y11" s="20">
+      <c r="Z11" s="20">
         <v>6</v>
       </c>
-      <c r="Z11" s="22" t="s">
+      <c r="AA11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AA11" s="22"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AC11" s="22"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A12" s="5">
+        <v>6</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1425,8 +1495,8 @@
       <c r="S12" s="20">
         <v>6</v>
       </c>
-      <c r="T12" s="18">
-        <v>0</v>
+      <c r="T12" s="20">
+        <v>1</v>
       </c>
       <c r="U12" s="18">
         <v>0</v>
@@ -1437,17 +1507,26 @@
       <c r="W12" s="18">
         <v>0</v>
       </c>
-      <c r="X12" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="23" t="s">
+      <c r="X12" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A13" s="5">
+        <v>7</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>49</v>
       </c>
@@ -1458,13 +1537,13 @@
         <v>600</v>
       </c>
       <c r="E13" s="26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F13" s="15">
         <v>0</v>
       </c>
       <c r="G13" s="5">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="H13" s="16">
         <v>0</v>
@@ -1485,43 +1564,52 @@
         <v>59</v>
       </c>
       <c r="N13" s="18">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="O13" s="18">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="P13" s="18">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="Q13" s="18">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="R13" s="19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S13" s="20">
         <v>6</v>
       </c>
-      <c r="T13" s="18">
-        <v>50</v>
+      <c r="T13" s="20">
+        <v>0</v>
       </c>
       <c r="U13" s="18">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="V13" s="18">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="W13" s="18">
-        <v>48</v>
-      </c>
-      <c r="X13" s="19">
-        <v>12</v>
-      </c>
-      <c r="Y13" s="20">
+        <v>175</v>
+      </c>
+      <c r="X13" s="18">
+        <v>175</v>
+      </c>
+      <c r="Y13" s="19">
+        <v>16</v>
+      </c>
+      <c r="Z13" s="20">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AA13" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A14" s="5">
+        <v>8</v>
+      </c>
       <c r="B14" s="5" t="s">
         <v>49</v>
       </c>
@@ -1576,26 +1664,35 @@
       <c r="S14" s="20">
         <v>0</v>
       </c>
-      <c r="T14" s="18">
-        <v>12</v>
+      <c r="T14" s="20">
+        <v>0</v>
       </c>
       <c r="U14" s="18">
         <v>12</v>
       </c>
       <c r="V14" s="18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W14" s="18">
         <v>13</v>
       </c>
-      <c r="X14" s="19">
+      <c r="X14" s="18">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="19">
         <v>4</v>
       </c>
-      <c r="Y14" s="20">
+      <c r="Z14" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AA14" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A15" s="5">
+        <v>9</v>
+      </c>
       <c r="B15" s="5" t="s">
         <v>49</v>
       </c>
@@ -1650,8 +1747,8 @@
       <c r="S15" s="20">
         <v>6</v>
       </c>
-      <c r="T15" s="18">
-        <v>50</v>
+      <c r="T15" s="20">
+        <v>0</v>
       </c>
       <c r="U15" s="18">
         <v>50</v>
@@ -1662,17 +1759,26 @@
       <c r="W15" s="18">
         <v>50</v>
       </c>
-      <c r="X15" s="19">
+      <c r="X15" s="18">
+        <v>50</v>
+      </c>
+      <c r="Y15" s="19">
         <v>8</v>
       </c>
-      <c r="Y15" s="20">
+      <c r="Z15" s="20">
         <v>6</v>
       </c>
-      <c r="Z15" s="5" t="s">
+      <c r="AA15" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A16" s="5">
+        <v>10</v>
+      </c>
       <c r="B16" s="5" t="s">
         <v>49</v>
       </c>
@@ -1683,7 +1789,7 @@
         <v>800</v>
       </c>
       <c r="E16" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16" s="15">
         <v>0</v>
@@ -1710,94 +1816,106 @@
         <v>59</v>
       </c>
       <c r="N16" s="18">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="O16" s="18">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="P16" s="18">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="18">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="R16" s="19">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="S16" s="20">
         <v>5</v>
       </c>
-      <c r="T16" s="18">
-        <v>20</v>
+      <c r="T16" s="20">
+        <v>0</v>
       </c>
       <c r="U16" s="18">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="V16" s="18">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="W16" s="18">
-        <v>20</v>
-      </c>
-      <c r="X16" s="19">
-        <v>40</v>
-      </c>
-      <c r="Y16" s="20">
+        <v>30</v>
+      </c>
+      <c r="X16" s="18">
+        <v>30</v>
+      </c>
+      <c r="Y16" s="19">
+        <v>80</v>
+      </c>
+      <c r="Z16" s="20">
         <v>6</v>
       </c>
-      <c r="Z16" s="22" t="s">
+      <c r="AA16" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AA16" s="22" t="s">
+      <c r="AC16" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="5">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="C17" s="23"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C18" s="23"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C19" s="23"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C20" s="23"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C21" s="23"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C22" s="23"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C23" s="23"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C24" s="23"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C25" s="23"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C26" s="23"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C27" s="23"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C28" s="23"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C29" s="23"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C30" s="23"/>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C31" s="23"/>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C32" s="23"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.45">
@@ -1892,7 +2010,7 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="U4:Z4"/>
     <mergeCell ref="N4:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/unitdata.xlsx
+++ b/unitdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.zehu\Documents\SIFIWARCHESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DF5996-B046-4E08-BC13-B33833BECDF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E092A7-5508-484E-B99F-7D807BA4C7E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -253,6 +253,15 @@
   </si>
   <si>
     <t>Targon</t>
+  </si>
+  <si>
+    <t>Toxic Spores</t>
+  </si>
+  <si>
+    <t>Blast</t>
+  </si>
+  <si>
+    <t>Mantis</t>
   </si>
 </sst>
 </file>
@@ -779,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:AC62"/>
+  <dimension ref="A4:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1496,7 +1505,7 @@
         <v>6</v>
       </c>
       <c r="T12" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="18">
         <v>0</v>
@@ -1864,58 +1873,213 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="5">
-        <v>11</v>
-      </c>
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.45">
+      <c r="C17" s="23"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.45">
+      <c r="B18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="23"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C18" s="23"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C19" s="23"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C18" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="5">
+        <v>75</v>
+      </c>
+      <c r="E18" s="26">
+        <v>75</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>60</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>6</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="17">
+        <v>0</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="18">
+        <v>5</v>
+      </c>
+      <c r="O18" s="18">
+        <v>5</v>
+      </c>
+      <c r="P18" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>5</v>
+      </c>
+      <c r="R18" s="19">
+        <v>6</v>
+      </c>
+      <c r="S18" s="20">
+        <v>1</v>
+      </c>
+      <c r="T18" s="20">
+        <v>0</v>
+      </c>
+      <c r="U18" s="18">
+        <v>0</v>
+      </c>
+      <c r="V18" s="18">
+        <v>0</v>
+      </c>
+      <c r="W18" s="18">
+        <v>0</v>
+      </c>
+      <c r="X18" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.45">
+      <c r="B19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="5">
+        <v>150</v>
+      </c>
+      <c r="E19" s="26">
+        <v>60</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>80</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>5</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="17">
+        <v>0</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="18">
+        <v>0</v>
+      </c>
+      <c r="O19" s="18">
+        <v>0</v>
+      </c>
+      <c r="P19" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="18">
+        <v>0</v>
+      </c>
+      <c r="R19" s="19">
+        <v>0</v>
+      </c>
+      <c r="S19" s="20">
+        <v>0</v>
+      </c>
+      <c r="T19" s="20">
+        <v>0</v>
+      </c>
+      <c r="U19" s="18">
+        <v>0</v>
+      </c>
+      <c r="V19" s="18">
+        <v>0</v>
+      </c>
+      <c r="W19" s="18">
+        <v>0</v>
+      </c>
+      <c r="X19" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.45">
       <c r="C20" s="23"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.45">
       <c r="C21" s="23"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.45">
       <c r="C22" s="23"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.45">
       <c r="C23" s="23"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.45">
       <c r="C24" s="23"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.45">
       <c r="C25" s="23"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.45">
       <c r="C26" s="23"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.45">
       <c r="C27" s="23"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.45">
       <c r="C28" s="23"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.45">
       <c r="C29" s="23"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.45">
       <c r="C30" s="23"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.45">
       <c r="C31" s="23"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.45">
       <c r="C32" s="23"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.45">
@@ -2007,6 +2171,12 @@
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C62" s="23"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C63" s="23"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C64" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/unitdata.xlsx
+++ b/unitdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.zehu\Documents\SIFIWARCHESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E092A7-5508-484E-B99F-7D807BA4C7E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF95AAF-34CC-4F49-8D2B-53E587A0580E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -262,6 +262,24 @@
   </si>
   <si>
     <t>Mantis</t>
+  </si>
+  <si>
+    <t>Bettle</t>
+  </si>
+  <si>
+    <t>Acid Beetle</t>
+  </si>
+  <si>
+    <t>Fire Beetle</t>
+  </si>
+  <si>
+    <t>Assault spikes</t>
+  </si>
+  <si>
+    <t>Magma jet</t>
+  </si>
+  <si>
+    <t>Charge</t>
   </si>
 </sst>
 </file>
@@ -790,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2040,28 +2058,280 @@
         <v>0</v>
       </c>
       <c r="AB19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC19" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="C20" s="23"/>
+      <c r="B20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="5">
+        <v>200</v>
+      </c>
+      <c r="E20" s="26">
+        <v>40</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>200</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>4</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="17">
+        <v>2</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="18">
+        <v>10</v>
+      </c>
+      <c r="O20" s="18">
+        <v>10</v>
+      </c>
+      <c r="P20" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="18">
+        <v>10</v>
+      </c>
+      <c r="R20" s="19">
+        <v>6</v>
+      </c>
+      <c r="S20" s="20">
+        <v>3</v>
+      </c>
+      <c r="T20" s="20">
+        <v>0</v>
+      </c>
+      <c r="U20" s="18">
+        <v>0</v>
+      </c>
+      <c r="V20" s="18">
+        <v>0</v>
+      </c>
+      <c r="W20" s="18">
+        <v>0</v>
+      </c>
+      <c r="X20" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="C21" s="23"/>
+      <c r="B21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="5">
+        <v>225</v>
+      </c>
+      <c r="E21" s="26">
+        <v>40</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>200</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>4</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="17">
+        <v>2</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="18">
+        <v>10</v>
+      </c>
+      <c r="O21" s="18">
+        <v>15</v>
+      </c>
+      <c r="P21" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>15</v>
+      </c>
+      <c r="R21" s="19">
+        <v>6</v>
+      </c>
+      <c r="S21" s="20">
+        <v>4</v>
+      </c>
+      <c r="T21" s="20">
+        <v>0</v>
+      </c>
+      <c r="U21" s="18">
+        <v>0</v>
+      </c>
+      <c r="V21" s="18">
+        <v>0</v>
+      </c>
+      <c r="W21" s="18">
+        <v>0</v>
+      </c>
+      <c r="X21" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="C22" s="23"/>
+      <c r="B22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="5">
+        <v>225</v>
+      </c>
+      <c r="E22" s="26">
+        <v>40</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>180</v>
+      </c>
+      <c r="H22" s="16">
+        <v>200</v>
+      </c>
+      <c r="I22" s="5">
+        <v>5</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="17">
+        <v>1</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" s="18">
+        <v>12</v>
+      </c>
+      <c r="O22" s="18">
+        <v>10</v>
+      </c>
+      <c r="P22" s="18">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="18">
+        <v>10</v>
+      </c>
+      <c r="R22" s="19">
+        <v>6</v>
+      </c>
+      <c r="S22" s="20">
+        <v>6</v>
+      </c>
+      <c r="T22" s="20">
+        <v>0</v>
+      </c>
+      <c r="U22" s="18">
+        <v>0</v>
+      </c>
+      <c r="V22" s="18">
+        <v>0</v>
+      </c>
+      <c r="W22" s="18">
+        <v>0</v>
+      </c>
+      <c r="X22" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.45">
+      <c r="B23" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="C23" s="23"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.45">
+      <c r="B24" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.45">
+      <c r="B25" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="C25" s="23"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.45">
+      <c r="B26" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.45">

--- a/unitdata.xlsx
+++ b/unitdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.zehu\Documents\SIFIWARCHESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF95AAF-34CC-4F49-8D2B-53E587A0580E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D43B018-F13E-4B29-AD05-0316B3223C26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1891,12 +1891,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C17" s="23"/>
       <c r="AB17" s="22"/>
       <c r="AC17" s="22"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A18" s="5">
+        <v>11</v>
+      </c>
       <c r="B18" s="5" t="s">
         <v>72</v>
       </c>
@@ -1978,7 +1981,10 @@
       <c r="AB18" s="22"/>
       <c r="AC18" s="22"/>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A19" s="5">
+        <v>12</v>
+      </c>
       <c r="B19" s="5" t="s">
         <v>72</v>
       </c>
@@ -2064,7 +2070,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A20" s="5">
+        <v>13</v>
+      </c>
       <c r="B20" s="5" t="s">
         <v>72</v>
       </c>
@@ -2147,7 +2156,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A21" s="5">
+        <v>14</v>
+      </c>
       <c r="B21" s="5" t="s">
         <v>72</v>
       </c>
@@ -2227,7 +2239,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A22" s="5">
+        <v>15</v>
+      </c>
       <c r="B22" s="5" t="s">
         <v>72</v>
       </c>
@@ -2310,46 +2325,46 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B23" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="23"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B24" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="23"/>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B25" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="23"/>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B26" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C26" s="23"/>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C27" s="23"/>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C28" s="23"/>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C29" s="23"/>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C30" s="23"/>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C31" s="23"/>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C32" s="23"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.45">

--- a/unitdata.xlsx
+++ b/unitdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.zehu\Documents\SIFIWARCHESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D43B018-F13E-4B29-AD05-0316B3223C26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5046F8-22B6-449B-B708-22827FB36548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="83">
   <si>
     <t>name</t>
   </si>
@@ -264,9 +264,6 @@
     <t>Mantis</t>
   </si>
   <si>
-    <t>Bettle</t>
-  </si>
-  <si>
     <t>Acid Beetle</t>
   </si>
   <si>
@@ -280,6 +277,12 @@
   </si>
   <si>
     <t>Charge</t>
+  </si>
+  <si>
+    <t>Beetle</t>
+  </si>
+  <si>
+    <t>Spinos</t>
   </si>
 </sst>
 </file>
@@ -809,7 +812,7 @@
   <dimension ref="A4:AC64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1166,7 +1169,7 @@
         <v>9</v>
       </c>
       <c r="P8" s="18">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="18">
         <v>22</v>
@@ -2064,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC19" s="5" t="s">
         <v>74</v>
@@ -2078,7 +2081,7 @@
         <v>72</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D20" s="5">
         <v>200</v>
@@ -2153,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.45">
@@ -2164,7 +2167,7 @@
         <v>72</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="5">
         <v>225</v>
@@ -2247,7 +2250,7 @@
         <v>72</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="5">
         <v>225</v>
@@ -2322,34 +2325,126 @@
         <v>0</v>
       </c>
       <c r="AB22" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A23" s="5">
+        <v>16</v>
+      </c>
       <c r="B23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="5">
+        <v>300</v>
+      </c>
+      <c r="E23" s="26">
+        <v>40</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>120</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>4</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="17">
+        <v>0</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" s="18">
+        <v>8</v>
+      </c>
+      <c r="O23" s="18">
+        <v>8</v>
+      </c>
+      <c r="P23" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="18">
+        <v>10</v>
+      </c>
+      <c r="R23" s="19">
+        <v>12</v>
+      </c>
+      <c r="S23" s="20">
+        <v>6</v>
+      </c>
+      <c r="T23" s="20">
+        <v>0</v>
+      </c>
+      <c r="U23" s="18">
+        <v>8</v>
+      </c>
+      <c r="V23" s="18">
+        <v>8</v>
+      </c>
+      <c r="W23" s="18">
+        <v>10</v>
+      </c>
+      <c r="X23" s="18">
+        <v>10</v>
+      </c>
+      <c r="Y23" s="19">
+        <v>12</v>
+      </c>
+      <c r="Z23" s="20">
+        <v>6</v>
+      </c>
+      <c r="AA23" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A24" s="5">
+        <v>17</v>
+      </c>
       <c r="B24" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A25" s="5">
+        <v>18</v>
+      </c>
       <c r="B25" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="23"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A26" s="5">
+        <v>19</v>
+      </c>
       <c r="B26" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A27" s="5">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="C27" s="23"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.45">
